--- a/Psychopy/Music.xlsx
+++ b/Psychopy/Music.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uqjlarwo/Desktop/git/MusicAffectPsychophysiology2019/Experiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uqjlarwo/Desktop/git/AlexithymiaMusicAffectPsychophysiology2019/Psychopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="4500" yWindow="1480" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>valence</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>30MonoWAV/30MonoT4.wav</t>
+  </si>
+  <si>
+    <t>marker</t>
   </si>
 </sst>
 </file>
@@ -426,18 +429,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -447,8 +450,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -458,8 +464,11 @@
       <c r="C2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -469,8 +478,11 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -480,8 +492,11 @@
       <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -491,8 +506,11 @@
       <c r="C5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -502,8 +520,11 @@
       <c r="C6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -513,8 +534,11 @@
       <c r="C7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -524,8 +548,11 @@
       <c r="C8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -535,8 +562,11 @@
       <c r="C9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -546,8 +576,11 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -557,8 +590,11 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -568,8 +604,11 @@
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -579,8 +618,11 @@
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -590,8 +632,11 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -601,8 +646,11 @@
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -612,8 +660,11 @@
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -622,6 +673,9 @@
       </c>
       <c r="C17">
         <v>1</v>
+      </c>
+      <c r="D17">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Psychopy/Music.xlsx
+++ b/Psychopy/Music.xlsx
@@ -432,7 +432,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,7 +465,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -479,7 +479,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -493,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -507,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -521,7 +521,7 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -535,7 +535,7 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -563,7 +563,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -605,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -633,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -647,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -675,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Psychopy/Music.xlsx
+++ b/Psychopy/Music.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uqjlarwo/Desktop/git/AlexithymiaMusicAffectPsychophysiology2019/Psychopy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joellarwood/Desktop/git/AlexithymiaMusicAffectPsychophysiology2019/Psychopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991035E3-8552-954D-A860-BDFBE6B91C7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="1480" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>valence</t>
   </si>
@@ -87,12 +88,15 @@
   </si>
   <si>
     <t>marker</t>
+  </si>
+  <si>
+    <t>affectcat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -161,6 +165,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -428,11 +435,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -440,7 +447,7 @@
     <col min="1" max="1" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -453,8 +460,14 @@
       <c r="D1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -467,8 +480,14 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -481,8 +500,14 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -495,8 +520,14 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -509,8 +540,14 @@
       <c r="D5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -523,8 +560,14 @@
       <c r="D6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -537,8 +580,14 @@
       <c r="D7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -551,8 +600,14 @@
       <c r="D8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -565,8 +620,14 @@
       <c r="D9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -579,8 +640,14 @@
       <c r="D10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -593,8 +660,14 @@
       <c r="D11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -607,8 +680,14 @@
       <c r="D12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -621,8 +700,14 @@
       <c r="D13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -635,8 +720,14 @@
       <c r="D14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -649,8 +740,14 @@
       <c r="D15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -663,8 +760,14 @@
       <c r="D16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -675,6 +778,12 @@
         <v>1</v>
       </c>
       <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
         <v>16</v>
       </c>
     </row>

--- a/Psychopy/Music.xlsx
+++ b/Psychopy/Music.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joellarwood/Desktop/git/AlexithymiaMusicAffectPsychophysiology2019/Psychopy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uqjlarwo/Desktop/git/AlexithymiaMusicAffectPsychophysiology2019/Psychopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991035E3-8552-954D-A860-BDFBE6B91C7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3580" yWindow="1640" windowWidth="28800" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>valence</t>
   </si>
@@ -87,16 +86,16 @@
     <t>30MonoWAV/30MonoT4.wav</t>
   </si>
   <si>
-    <t>marker</t>
-  </si>
-  <si>
     <t>affectcat</t>
+  </si>
+  <si>
+    <t>songmark</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -435,11 +434,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,7 +446,7 @@
     <col min="1" max="1" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -463,11 +462,8 @@
       <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -478,16 +474,13 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -503,11 +496,8 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -518,16 +508,13 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -538,16 +525,13 @@
         <v>2</v>
       </c>
       <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -558,16 +542,13 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -578,16 +559,13 @@
         <v>2</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -598,16 +576,13 @@
         <v>2</v>
       </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>7</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -618,16 +593,13 @@
         <v>2</v>
       </c>
       <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>8</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -638,16 +610,13 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
         <v>9</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -658,16 +627,13 @@
         <v>1</v>
       </c>
       <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
         <v>10</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -678,16 +644,13 @@
         <v>1</v>
       </c>
       <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
         <v>11</v>
       </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -698,16 +661,13 @@
         <v>1</v>
       </c>
       <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
         <v>12</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -718,16 +678,13 @@
         <v>1</v>
       </c>
       <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
         <v>13</v>
       </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -738,16 +695,13 @@
         <v>1</v>
       </c>
       <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
         <v>14</v>
       </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -758,16 +712,13 @@
         <v>1</v>
       </c>
       <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
         <v>15</v>
       </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="F16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -778,12 +729,9 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="F17">
         <v>16</v>
       </c>
     </row>
